--- a/biology/Botanique/Square_des_Victimes-de-la-Gestapo/Square_des_Victimes-de-la-Gestapo.xlsx
+++ b/biology/Botanique/Square_des_Victimes-de-la-Gestapo/Square_des_Victimes-de-la-Gestapo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Square des Victimes de la Gestapo est situé à Reims.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est situé 18 rue Jeanne d’Arc à Reims. Il est ouvert au public dans les conditions suivantes : d’avril à juin de 9 h à 21 h, de juillet à août de 9 h à 22 h, en septembre de 9 h à 21 h et enfin d’octobre à mars de 9 h à 18 h. L'accès au square est possible en bus et CityBus (lignes 2, 3, 4, 6, 8, 9 - arrêt Étape) et Tram A et B (arrêt Vesle).
 </t>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Square des Victimes de la Gestapo (1 000 m2) a été inauguré le 30 août 1987[1], sur l’emplacement de l’ancienne maison utilisée par la Gestapo pendant l'occupation nazie. Elle fut démolie en 1986 mais un pan de mur a été conservé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Square des Victimes de la Gestapo (1 000 m2) a été inauguré le 30 août 1987, sur l’emplacement de l’ancienne maison utilisée par la Gestapo pendant l'occupation nazie. Elle fut démolie en 1986 mais un pan de mur a été conservé.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Le jardin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin comprend des plantations variées, notamment des espèces rares telles que des pergolas.
 </t>
@@ -605,7 +623,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre ses diverses espèces végétales, le parc comporte un bassin avec jets d'eau en son centre. Une sculpture de Patrice Alexandre « Le Champ d’Émotion », qui rappelle la Croix de Lorraine, symbole de la Résistance, est située à l'entrée du square. Un des murs est recouvert de plaques commémoratives nominatives initialement apposées en 1947 à l’initiative de la Ville de Reims sur les façades des maisons de victimes de la répression nazie. Ces plaques proviennent de maisons dont les travaux de ravalement, d'extension ou de démolition menaçaient la préservation. Une plaque commémorative a été apposée en hommage aux martyrs de la Résistance.
 			Cérémonie de commémoration de la libération de Reims, en 2020
